--- a/R/3.中介效应/打乱后的数据2.xlsx
+++ b/R/3.中介效应/打乱后的数据2.xlsx
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6">
         <v>2</v>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>4</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11">
         <v>4</v>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -6823,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -10871,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23">
         <v>4</v>
@@ -12389,7 +12389,7 @@
         <v>3</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -13401,7 +13401,7 @@
         <v>4</v>
       </c>
       <c r="U26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>3</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -14413,7 +14413,7 @@
         <v>2</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -15425,7 +15425,7 @@
         <v>3</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -15931,7 +15931,7 @@
         <v>4</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31">
         <v>2</v>
@@ -16943,7 +16943,7 @@
         <v>3</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33">
         <v>4</v>
@@ -17449,7 +17449,7 @@
         <v>2</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>2</v>
@@ -18461,7 +18461,7 @@
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -19473,7 +19473,7 @@
         <v>2</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -19979,7 +19979,7 @@
         <v>2</v>
       </c>
       <c r="U39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -21497,7 +21497,7 @@
         <v>4</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V42">
         <v>2</v>
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>3</v>
@@ -23521,7 +23521,7 @@
         <v>1</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -24027,7 +24027,7 @@
         <v>2</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -24533,7 +24533,7 @@
         <v>1</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -25039,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -25545,7 +25545,7 @@
         <v>0</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -26051,7 +26051,7 @@
         <v>2</v>
       </c>
       <c r="U51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -26557,7 +26557,7 @@
         <v>0</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -27063,7 +27063,7 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -28075,7 +28075,7 @@
         <v>4</v>
       </c>
       <c r="U55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>2</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -29593,7 +29593,7 @@
         <v>2</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -30099,7 +30099,7 @@
         <v>2</v>
       </c>
       <c r="U59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -30605,7 +30605,7 @@
         <v>2</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -31617,7 +31617,7 @@
         <v>2</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -32123,7 +32123,7 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -32629,7 +32629,7 @@
         <v>4</v>
       </c>
       <c r="U64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -33135,7 +33135,7 @@
         <v>4</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -33641,7 +33641,7 @@
         <v>0</v>
       </c>
       <c r="U66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>3</v>
       </c>
       <c r="U67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -34653,7 +34653,7 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V68">
         <v>3</v>
@@ -35159,7 +35159,7 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>4</v>
       </c>
       <c r="U70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V70">
         <v>3</v>
@@ -36171,7 +36171,7 @@
         <v>3</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V71">
         <v>2</v>
@@ -37183,7 +37183,7 @@
         <v>0</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>3</v>
       </c>
       <c r="U74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V74">
         <v>2</v>
@@ -39207,7 +39207,7 @@
         <v>2</v>
       </c>
       <c r="U77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -39713,7 +39713,7 @@
         <v>4</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -40725,7 +40725,7 @@
         <v>3</v>
       </c>
       <c r="U80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -41231,7 +41231,7 @@
         <v>4</v>
       </c>
       <c r="U81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V81">
         <v>1</v>
@@ -41737,7 +41737,7 @@
         <v>3</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -42243,7 +42243,7 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -42749,7 +42749,7 @@
         <v>4</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -43255,7 +43255,7 @@
         <v>4</v>
       </c>
       <c r="U85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V85">
         <v>3</v>
@@ -43761,7 +43761,7 @@
         <v>2</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -44267,7 +44267,7 @@
         <v>2</v>
       </c>
       <c r="U87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V87">
         <v>1</v>
@@ -44773,7 +44773,7 @@
         <v>4</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -45279,7 +45279,7 @@
         <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -46797,7 +46797,7 @@
         <v>4</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -47303,7 +47303,7 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -47809,7 +47809,7 @@
         <v>0</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -48315,7 +48315,7 @@
         <v>3</v>
       </c>
       <c r="U95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V95">
         <v>2</v>
@@ -48821,7 +48821,7 @@
         <v>0</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -49327,7 +49327,7 @@
         <v>1</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V97">
         <v>2</v>
@@ -50845,7 +50845,7 @@
         <v>2</v>
       </c>
       <c r="U100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V100">
         <v>2</v>
@@ -51857,7 +51857,7 @@
         <v>0</v>
       </c>
       <c r="U102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V102">
         <v>0</v>
